--- a/Documentation/Round_Touch_60_Switch_BOM.xlsx
+++ b/Documentation/Round_Touch_60_Switch_BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://neilsquiresoc.sharepoint.com/sites/MMC-Team/Shared Documents/Server/3 AT Library/WIP/Touch Switch/Documentation/Working_Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://neilsquiresoc.sharepoint.com/sites/MMC-Team/Shared Documents/Server/3 AT Library/WIP/Touch Switch/Round Touch 60 Switch/Documentation/Working_Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="286" documentId="11_DC0E2523FAFE28515E8D5C5A1D4A6B02C3B15AFA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7BB8A7D-C9EE-4F9D-96AC-9EA1BF828B87}"/>
+  <xr:revisionPtr revIDLastSave="290" documentId="11_DC0E2523FAFE28515E8D5C5A1D4A6B02C3B15AFA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{728626DB-CC8B-4F62-AA95-CE1206232EAF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="66">
   <si>
     <t>Unit Cost</t>
   </si>
@@ -231,17 +231,36 @@
   <si>
     <t>Round Touch 60 Switch</t>
   </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.ca/dp/B01D1D0FLG?_encoding=UTF8&amp;psc=1&amp;ref_=cm_sw_r_cp_ud_dp_QGGJ142876K1KE94305V </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.ca/dp/B0B429K3VN?ref_=cm_sw_r_cp_ud_dp_Z8F8DY6MMHFM11J52DES </t>
+  </si>
+  <si>
+    <t>DC Cable Male to Female - cut in half</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.digikey.ca/en/products/detail/adafruit-industries-llc/327/6827037 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.ca/dp/B0B3MN43C5?_encoding=UTF8&amp;psc=1&amp;ref_=cm_sw_r_cp_ud_dp_5JVVVC76WPC272491VS9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.ca/dp/B08722QC75?_encoding=UTF8&amp;psc=1&amp;ref_=cm_sw_r_cp_ud_dp_K4SNYG36DGHQZTGWG1EY </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,6 +354,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -542,7 +568,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1"/>
@@ -587,6 +613,8 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="60% - Accent4" xfId="3" builtinId="44"/>
@@ -607,10 +635,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -876,9 +900,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1328,7 +1354,7 @@
       <c r="B16" s="41"/>
       <c r="I16" s="20"/>
     </row>
-    <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="26" t="s">
         <v>6</v>
       </c>
@@ -1347,13 +1373,13 @@
       <c r="J17" s="28"/>
       <c r="K17" s="30"/>
     </row>
-    <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>47</v>
       </c>
       <c r="I18" s="20"/>
     </row>
-    <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="38" t="s">
         <v>28</v>
       </c>
@@ -1371,18 +1397,18 @@
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="42" t="s">
         <v>29</v>
       </c>
@@ -1400,7 +1426,7 @@
       <c r="M23" s="10"/>
       <c r="N23" s="10"/>
     </row>
-    <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="18" t="s">
         <v>6</v>
       </c>
@@ -1425,32 +1451,39 @@
       <c r="J24" s="18"/>
       <c r="K24" s="18"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="34" t="s">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="44"/>
+      <c r="B25" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44">
+        <v>20</v>
+      </c>
+      <c r="F25" s="45">
+        <v>12.99</v>
+      </c>
+      <c r="G25" s="44"/>
+      <c r="H25" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="44"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>34</v>
-      </c>
-      <c r="C25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25" s="33">
-        <v>0.62</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" t="s">
-        <v>35</v>
       </c>
       <c r="C26" t="s">
         <v>18</v>
@@ -1459,20 +1492,139 @@
         <v>1</v>
       </c>
       <c r="F26" s="33">
+        <v>0.62</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" s="33">
         <v>2.0099999999999998</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="H27" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="F27" s="33"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="F28" s="33"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="F29" s="33"/>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B28" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44">
+        <v>10</v>
+      </c>
+      <c r="F28" s="45">
+        <v>14.99</v>
+      </c>
+      <c r="G28" s="44"/>
+      <c r="H28" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B29" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44">
+        <v>1</v>
+      </c>
+      <c r="F29" s="45">
+        <v>4.34</v>
+      </c>
+      <c r="G29" s="44"/>
+      <c r="H29" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B30" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44">
+        <v>4</v>
+      </c>
+      <c r="F30" s="45">
+        <v>13.99</v>
+      </c>
+      <c r="G30" s="44"/>
+      <c r="H30" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="44"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="44"/>
+      <c r="Q30" s="44"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B31" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44">
+        <v>2</v>
+      </c>
+      <c r="F31" s="45">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="G31" s="44"/>
+      <c r="H31" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="44"/>
+      <c r="O31" s="44"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="44"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C32" s="44"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="44"/>
+      <c r="O32" s="44"/>
+      <c r="P32" s="44"/>
+      <c r="Q32" s="44"/>
+    </row>
+    <row r="33" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C33" s="44"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="44"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="44"/>
+      <c r="Q33" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1491,35 +1643,20 @@
     <hyperlink ref="K8" r:id="rId6" display="https://www.amazon.com/gp/product/B07C7VSRBG/ref=ppx_yo_dt_b_search_asin_title?ie=UTF8&amp;psc=1" xr:uid="{D0730CEC-151D-404B-B4C0-5836A7EB550F}"/>
     <hyperlink ref="K11" r:id="rId7" display="https://www.amazon.com/TR-Industrial-TR88301-Multi-Purpose-Cable/dp/B01018DB2E/ref=sr_1_4?crid=2F6Y517DKVSVH&amp;keywords=zip%2Bties%2Bsmall&amp;qid=1668401320&amp;sprefix=zip%2Bties%2Bsmall%2Caps%2C125&amp;sr=8-4&amp;th=1" xr:uid="{E0C05DB5-522D-4FD7-AA94-A9A4393ED2F4}"/>
     <hyperlink ref="K10" r:id="rId8" display="https://www.amazon.com/gp/product/B08722QC75/ref=ppx_yo_dt_b_search_asin_title?ie=UTF8&amp;th=1" xr:uid="{542316AA-2374-4F86-936F-111F8EB8DBE1}"/>
-    <hyperlink ref="H25" r:id="rId9" display="https://www.mouser.ca/ProductDetail/Vishay-BC-Components/NFR25H0001000JR500?qs=H30XFsNYD%2FEWxhcyLyBucg%3D%3D" xr:uid="{9C413C4E-9345-47DD-BDF8-B855D0ECD44A}"/>
-    <hyperlink ref="H26" r:id="rId10" display="https://www.mouser.ca/ProductDetail/Renesas-Electronics/PS2565-1-V-A?qs=qSfuJ%252Bfl%2Fd4lKIOVtP5dvA%3D%3D" xr:uid="{837B99F4-2535-4DB6-A0E9-40844513A443}"/>
+    <hyperlink ref="H26" r:id="rId9" display="https://www.mouser.ca/ProductDetail/Vishay-BC-Components/NFR25H0001000JR500?qs=H30XFsNYD%2FEWxhcyLyBucg%3D%3D" xr:uid="{9C413C4E-9345-47DD-BDF8-B855D0ECD44A}"/>
+    <hyperlink ref="H27" r:id="rId10" display="https://www.mouser.ca/ProductDetail/Renesas-Electronics/PS2565-1-V-A?qs=qSfuJ%252Bfl%2Fd4lKIOVtP5dvA%3D%3D" xr:uid="{837B99F4-2535-4DB6-A0E9-40844513A443}"/>
+    <hyperlink ref="H25" r:id="rId11" display="https://www.amazon.ca/dp/B01D1D0FLG?_encoding=UTF8&amp;psc=1&amp;ref_=cm_sw_r_cp_ud_dp_QGGJ142876K1KE94305V" xr:uid="{AE530BCE-FF34-4D0C-91F6-18F0CB6E3F71}"/>
+    <hyperlink ref="H28" r:id="rId12" display="https://www.amazon.ca/dp/B0B429K3VN?ref_=cm_sw_r_cp_ud_dp_Z8F8DY6MMHFM11J52DES" xr:uid="{0F796EAC-EF13-4140-8691-8FB61483694F}"/>
+    <hyperlink ref="H29" r:id="rId13" display="https://www.digikey.ca/en/products/detail/adafruit-industries-llc/327/6827037" xr:uid="{9DA1EE00-3E5C-4B19-802E-1D17934436B8}"/>
+    <hyperlink ref="H30" r:id="rId14" display="https://www.amazon.ca/dp/B0B3MN43C5?_encoding=UTF8&amp;psc=1&amp;ref_=cm_sw_r_cp_ud_dp_5JVVVC76WPC272491VS9" xr:uid="{6546DC9B-41A5-4135-96E6-2AFCFDD3209C}"/>
+    <hyperlink ref="H31" r:id="rId15" display="https://www.amazon.ca/dp/B08722QC75?_encoding=UTF8&amp;psc=1&amp;ref_=cm_sw_r_cp_ud_dp_K4SNYG36DGHQZTGWG1EY" xr:uid="{9116E4DF-E553-4B79-95C4-E79AD974CCA1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="38b325e6-602c-452a-8617-173bf47082c5" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8cf100d1-0775-4feb-8634-62999c4541bc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100456CAEA290209545A9F8681F83603874" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d27786a72e09a52c769a64d5f7eeaa24">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8cf100d1-0775-4feb-8634-62999c4541bc" xmlns:ns3="38b325e6-602c-452a-8617-173bf47082c5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="03ae89856d271009074f70b56337b48d" ns2:_="" ns3:_="">
     <xsd:import namespace="8cf100d1-0775-4feb-8634-62999c4541bc"/>
@@ -1756,26 +1893,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4958292-C6C4-482B-887A-6CF9FB19AB74}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="38b325e6-602c-452a-8617-173bf47082c5"/>
-    <ds:schemaRef ds:uri="8cf100d1-0775-4feb-8634-62999c4541bc"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4740145F-09D2-466B-B9A2-2798696B0ADF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="38b325e6-602c-452a-8617-173bf47082c5" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8cf100d1-0775-4feb-8634-62999c4541bc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99BECD52-63A8-454F-82E6-6195B786F95C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1792,4 +1930,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4740145F-09D2-466B-B9A2-2798696B0ADF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4958292-C6C4-482B-887A-6CF9FB19AB74}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="38b325e6-602c-452a-8617-173bf47082c5"/>
+    <ds:schemaRef ds:uri="8cf100d1-0775-4feb-8634-62999c4541bc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>